--- a/Financial/SumProductCountAndSum.xlsx
+++ b/Financial/SumProductCountAndSum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>vitosh</t>
   </si>
@@ -37,10 +37,22 @@
     <t>silvia</t>
   </si>
   <si>
-    <t>Rooms</t>
-  </si>
-  <si>
-    <t>Datum</t>
+    <t>Range 1</t>
+  </si>
+  <si>
+    <t>Range 2</t>
+  </si>
+  <si>
+    <t>Condition 2</t>
+  </si>
+  <si>
+    <t>Condition 1</t>
+  </si>
+  <si>
+    <t>Count with 2 conditions</t>
+  </si>
+  <si>
+    <t>Count with 1 condition</t>
   </si>
 </sst>
 </file>
@@ -50,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +91,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,12 +125,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -112,23 +147,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
+    <cellStyle name="Eingabe" xfId="5" builtinId="20"/>
+    <cellStyle name="Gut" xfId="4" builtinId="26"/>
     <cellStyle name="Komma" xfId="3" builtinId="3"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Notiz" xfId="6" builtinId="10"/>
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -439,21 +565,27 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
@@ -464,7 +596,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -472,7 +604,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -480,7 +612,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -488,7 +620,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -496,10 +628,10 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8">
@@ -510,7 +642,7 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -518,7 +650,7 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -526,7 +658,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -534,7 +666,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -542,71 +674,79 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2.5</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>2.5</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f>SUMPRODUCT((B2:B6=C2)*1)+
-  SUMPRODUCT((B8:B13=C8)*1)+
-  SUMPRODUCT((B16:B20=C16)*1)</f>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <f>SUMPRODUCT((B2:B6=C2)*1)
++SUMPRODUCT((B8:B13=C8)*1)
++SUMPRODUCT((B16:B20=C16)*1)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <f>SUMPRODUCT(((B2:B6=C2)*1)*(A2:A6=D2))
 +SUMPRODUCT(((B8:B13=C8)*1)*(A8:A13=D8))
 +SUMPRODUCT(((B16:B20=C16)*1)*(A16:A20=D16))</f>
         <v>6</v>
       </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
